--- a/biology/Médecine/Techno_Plus/Techno_Plus.xlsx
+++ b/biology/Médecine/Techno_Plus/Techno_Plus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Techno Plus (ou Techno+) est une association loi de 1901 française qui, en plus de promouvoir la musique techno, s'est lancée dans une mission de réduction des risques liés aux pratiques festives et en particulier la consommation de substances psycho-actives.
 Cette association mène des actions de réductions des risques dans les milieux festifs (free party, teknival, etc.) depuis 1995. Pour cela, les volontaires de l'organisation vont sur le terrain et mettent à disposition de l'information par des flyers afin d'informer sur les risques (consommation de substances, sexualité, risques auditifs, piercing, prévention routière) et du matériel pour réduire ces risques (préservatifs, éthylotests, matériel propre et à usage unique de sniff et d'injection, couverture de survie, eau...).
@@ -515,7 +527,9 @@
           <t>Actions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Voici le genre d'actions qu'a réalisé Techno+ :
 Réalisation de documents d'information et de réduction des risques sur les drogues : Ecstasy, LSD, speed, cocaïne, kétamine, GHB, « sniff propre », héroïne, Drug mix (polyconsommation), « Cannabis », « Champi »,  « Alcool », « Deal consom*» (au sujet de l'usage-revente de produits stupéfiants), « Repères » (outil d'auto-évaluation de sa consommation),  « Nos Droits » (Flyer juridique), « Sons » (risques auditifs), « Sur la route » et « Dépistage » (prévention routière).
